--- a/永洪更新记录.xlsx
+++ b/永洪更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>修改内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,14 @@
   </si>
   <si>
     <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,6 +438,12 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/永洪更新记录.xlsx
+++ b/永洪更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>修改内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,6 +445,78 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/永洪更新记录.xlsx
+++ b/永洪更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>修改内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,22 +31,6 @@
   </si>
   <si>
     <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,92 +415,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
